--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/behavior_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/behavior_statistics.xlsx
@@ -557,31 +557,31 @@
         <v>0.012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="D4" t="n">
-        <v>210.555</v>
+        <v>131.679</v>
       </c>
       <c r="E4" t="n">
-        <v>269.377</v>
+        <v>107.91</v>
       </c>
       <c r="F4" t="n">
-        <v>11.86</v>
+        <v>13.178</v>
       </c>
       <c r="G4" t="n">
-        <v>26.565</v>
+        <v>27.828</v>
       </c>
       <c r="H4" t="n">
-        <v>2.91</v>
+        <v>2.322</v>
       </c>
       <c r="I4" t="n">
-        <v>2.772</v>
+        <v>2.182</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="K4" t="n">
-        <v>0.707</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="5">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="D5" t="n">
-        <v>203.683</v>
+        <v>144.482</v>
       </c>
       <c r="E5" t="n">
-        <v>204.52</v>
+        <v>87.336</v>
       </c>
       <c r="F5" t="n">
-        <v>3.37</v>
+        <v>1.222</v>
       </c>
       <c r="G5" t="n">
-        <v>7.621</v>
+        <v>3.667</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.578</v>
       </c>
       <c r="I5" t="n">
-        <v>1.766</v>
+        <v>1.782</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2</v>
+        <v>0.111</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="6">
@@ -628,34 +628,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.046</v>
+        <v>0.051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118</v>
+        <v>0.124</v>
       </c>
       <c r="D6" t="n">
-        <v>202.833</v>
+        <v>135.804</v>
       </c>
       <c r="E6" t="n">
-        <v>252.524</v>
+        <v>145.585</v>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>1.389</v>
       </c>
       <c r="G6" t="n">
-        <v>3.099</v>
+        <v>1.742</v>
       </c>
       <c r="H6" t="n">
-        <v>2.54</v>
+        <v>2.078</v>
       </c>
       <c r="I6" t="n">
-        <v>2.445</v>
+        <v>2.08</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="K6" t="n">
-        <v>0.516</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>293.659</v>
+        <v>172.616</v>
       </c>
       <c r="E7" t="n">
-        <v>396.233</v>
+        <v>108.614</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
+        <v>2.278</v>
       </c>
       <c r="G7" t="n">
-        <v>4.587</v>
+        <v>4.805</v>
       </c>
       <c r="H7" t="n">
-        <v>4.29</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.255</v>
+        <v>1.956</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="K7" t="n">
-        <v>0.483</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="C8" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="D8" t="n">
-        <v>264.954</v>
+        <v>186.7</v>
       </c>
       <c r="E8" t="n">
-        <v>264.113</v>
+        <v>97.90300000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>2.75</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>6.322</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.98</v>
+        <v>2.144</v>
       </c>
       <c r="I8" t="n">
-        <v>2.998</v>
+        <v>1.502</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2</v>
+        <v>0.111</v>
       </c>
       <c r="K8" t="n">
-        <v>0.422</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="9">
@@ -739,34 +739,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="D9" t="n">
-        <v>213.776</v>
+        <v>146.192</v>
       </c>
       <c r="E9" t="n">
-        <v>238.432</v>
+        <v>112.115</v>
       </c>
       <c r="F9" t="n">
-        <v>12.65</v>
+        <v>7.356</v>
       </c>
       <c r="G9" t="n">
-        <v>25.4</v>
+        <v>20.259</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.567</v>
       </c>
       <c r="I9" t="n">
-        <v>1.783</v>
+        <v>1.417</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.699</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="10">
@@ -776,34 +776,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D10" t="n">
-        <v>231.436</v>
+        <v>146.475</v>
       </c>
       <c r="E10" t="n">
-        <v>294.051</v>
+        <v>126.755</v>
       </c>
       <c r="F10" t="n">
-        <v>9.199999999999999</v>
+        <v>10.222</v>
       </c>
       <c r="G10" t="n">
-        <v>19.508</v>
+        <v>20.405</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.222</v>
       </c>
       <c r="I10" t="n">
-        <v>3.018</v>
+        <v>2.548</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="K10" t="n">
-        <v>0.516</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="11">
@@ -813,34 +813,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>329.255</v>
+        <v>213.333</v>
       </c>
       <c r="E11" t="n">
-        <v>463.631</v>
+        <v>301.072</v>
       </c>
       <c r="F11" t="n">
-        <v>4.84</v>
+        <v>2.233</v>
       </c>
       <c r="G11" t="n">
-        <v>8.877000000000001</v>
+        <v>3.496</v>
       </c>
       <c r="H11" t="n">
-        <v>5.58</v>
+        <v>2.122</v>
       </c>
       <c r="I11" t="n">
-        <v>11.013</v>
+        <v>1.394</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.333</v>
       </c>
       <c r="K11" t="n">
-        <v>1.549</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -850,34 +850,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="D12" t="n">
-        <v>206.353</v>
+        <v>139.766</v>
       </c>
       <c r="E12" t="n">
-        <v>232.189</v>
+        <v>103.78</v>
       </c>
       <c r="F12" t="n">
-        <v>10.01</v>
+        <v>11.122</v>
       </c>
       <c r="G12" t="n">
-        <v>25.058</v>
+        <v>26.315</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.744</v>
       </c>
       <c r="I12" t="n">
-        <v>1.653</v>
+        <v>1.53</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="K12" t="n">
-        <v>0.699</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="13">
@@ -890,31 +890,31 @@
         <v>0.024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="D13" t="n">
-        <v>230.464</v>
+        <v>162.748</v>
       </c>
       <c r="E13" t="n">
-        <v>243.585</v>
+        <v>123.139</v>
       </c>
       <c r="F13" t="n">
-        <v>10.94</v>
+        <v>12.156</v>
       </c>
       <c r="G13" t="n">
-        <v>19.603</v>
+        <v>20.389</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.289</v>
       </c>
       <c r="I13" t="n">
-        <v>2.243</v>
+        <v>1.938</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.778</v>
       </c>
       <c r="K13" t="n">
-        <v>0.675</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="14">
@@ -927,31 +927,31 @@
         <v>0.012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="D14" t="n">
-        <v>248.026</v>
+        <v>169.117</v>
       </c>
       <c r="E14" t="n">
-        <v>318.327</v>
+        <v>209.638</v>
       </c>
       <c r="F14" t="n">
-        <v>7.19</v>
+        <v>7.989</v>
       </c>
       <c r="G14" t="n">
-        <v>17.703</v>
+        <v>18.585</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>2.256</v>
       </c>
       <c r="I14" t="n">
-        <v>3.592</v>
+        <v>2.116</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="K14" t="n">
-        <v>0.699</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="15">
@@ -961,34 +961,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="D15" t="n">
-        <v>268.152</v>
+        <v>168.158</v>
       </c>
       <c r="E15" t="n">
-        <v>346.996</v>
+        <v>151.565</v>
       </c>
       <c r="F15" t="n">
-        <v>0.48</v>
+        <v>0.533</v>
       </c>
       <c r="G15" t="n">
-        <v>1.039</v>
+        <v>1.087</v>
       </c>
       <c r="H15" t="n">
-        <v>2.97</v>
+        <v>2.367</v>
       </c>
       <c r="I15" t="n">
-        <v>2.506</v>
+        <v>1.724</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="K15" t="n">
-        <v>0.675</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="16">
@@ -1001,31 +1001,31 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D16" t="n">
-        <v>262.45</v>
+        <v>179.687</v>
       </c>
       <c r="E16" t="n">
-        <v>299.427</v>
+        <v>154.285</v>
       </c>
       <c r="F16" t="n">
-        <v>4.58</v>
+        <v>5.089</v>
       </c>
       <c r="G16" t="n">
-        <v>14.483</v>
+        <v>15.267</v>
       </c>
       <c r="H16" t="n">
-        <v>2.98</v>
+        <v>2.456</v>
       </c>
       <c r="I16" t="n">
-        <v>2.184</v>
+        <v>1.508</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="K16" t="n">
-        <v>0.632</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="17">
@@ -1038,31 +1038,31 @@
         <v>0.007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D17" t="n">
-        <v>291.705</v>
+        <v>203.937</v>
       </c>
       <c r="E17" t="n">
-        <v>306.157</v>
+        <v>137.068</v>
       </c>
       <c r="F17" t="n">
-        <v>4.56</v>
+        <v>3.278</v>
       </c>
       <c r="G17" t="n">
-        <v>6.858</v>
+        <v>5.866</v>
       </c>
       <c r="H17" t="n">
-        <v>3.47</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.442</v>
+        <v>1.655</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="K17" t="n">
-        <v>0.823</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="18">
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="D18" t="n">
-        <v>223.027</v>
+        <v>153.16</v>
       </c>
       <c r="E18" t="n">
-        <v>281.552</v>
+        <v>185.107</v>
       </c>
       <c r="F18" t="n">
-        <v>1.36</v>
+        <v>1.511</v>
       </c>
       <c r="G18" t="n">
-        <v>3.033</v>
+        <v>3.177</v>
       </c>
       <c r="H18" t="n">
-        <v>2.78</v>
+        <v>2.078</v>
       </c>
       <c r="I18" t="n">
-        <v>2.504</v>
+        <v>1.227</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="19">
@@ -1109,34 +1109,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="D19" t="n">
-        <v>279.978</v>
+        <v>181.106</v>
       </c>
       <c r="E19" t="n">
-        <v>366.451</v>
+        <v>202.717</v>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>2.422</v>
       </c>
       <c r="G19" t="n">
-        <v>4.455</v>
+        <v>3.696</v>
       </c>
       <c r="H19" t="n">
-        <v>4.56</v>
+        <v>2.189</v>
       </c>
       <c r="I19" t="n">
-        <v>7.612</v>
+        <v>1.39</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2</v>
+        <v>0.444</v>
       </c>
       <c r="K19" t="n">
-        <v>2.44</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="20">
@@ -1146,34 +1146,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="C20" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="D20" t="n">
-        <v>260.59</v>
+        <v>192.955</v>
       </c>
       <c r="E20" t="n">
-        <v>248.783</v>
+        <v>134.781</v>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.467</v>
       </c>
       <c r="G20" t="n">
-        <v>4.88</v>
+        <v>5.109</v>
       </c>
       <c r="H20" t="n">
-        <v>3.29</v>
+        <v>2.644</v>
       </c>
       <c r="I20" t="n">
-        <v>2.843</v>
+        <v>2.098</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.707</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="21">
@@ -1183,34 +1183,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="C21" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="D21" t="n">
-        <v>195.228</v>
+        <v>117.929</v>
       </c>
       <c r="E21" t="n">
-        <v>271.83</v>
+        <v>126.128</v>
       </c>
       <c r="F21" t="n">
-        <v>1.67</v>
+        <v>1.856</v>
       </c>
       <c r="G21" t="n">
-        <v>3.447</v>
+        <v>3.603</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>2.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.36</v>
+        <v>2.093</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="K21" t="n">
-        <v>0.843</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="22">
@@ -1220,34 +1220,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="C22" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="D22" t="n">
-        <v>300.938</v>
+        <v>197.894</v>
       </c>
       <c r="E22" t="n">
-        <v>371.966</v>
+        <v>190.261</v>
       </c>
       <c r="F22" t="n">
-        <v>6.21</v>
+        <v>1.333</v>
       </c>
       <c r="G22" t="n">
-        <v>15.699</v>
+        <v>3.118</v>
       </c>
       <c r="H22" t="n">
-        <v>3.46</v>
+        <v>2.511</v>
       </c>
       <c r="I22" t="n">
-        <v>3.248</v>
+        <v>1.32</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.222</v>
       </c>
       <c r="K22" t="n">
-        <v>0.699</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="23">
@@ -1257,34 +1257,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="C23" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="D23" t="n">
-        <v>229.682</v>
+        <v>127.14</v>
       </c>
       <c r="E23" t="n">
-        <v>336.883</v>
+        <v>96.866</v>
       </c>
       <c r="F23" t="n">
-        <v>10.58</v>
+        <v>0.911</v>
       </c>
       <c r="G23" t="n">
-        <v>30.621</v>
+        <v>1.766</v>
       </c>
       <c r="H23" t="n">
-        <v>2.66</v>
+        <v>2.267</v>
       </c>
       <c r="I23" t="n">
-        <v>1.933</v>
+        <v>1.57</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9</v>
+        <v>0.333</v>
       </c>
       <c r="K23" t="n">
-        <v>1.853</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -1294,34 +1294,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="C24" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="D24" t="n">
-        <v>261.185</v>
+        <v>172.362</v>
       </c>
       <c r="E24" t="n">
-        <v>350.1</v>
+        <v>221.663</v>
       </c>
       <c r="F24" t="n">
-        <v>8.92</v>
+        <v>2.233</v>
       </c>
       <c r="G24" t="n">
-        <v>21.321</v>
+        <v>2.899</v>
       </c>
       <c r="H24" t="n">
-        <v>4.23</v>
+        <v>2.344</v>
       </c>
       <c r="I24" t="n">
-        <v>6.083</v>
+        <v>1.276</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="K24" t="n">
-        <v>0.675</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="25">
@@ -1331,34 +1331,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="D25" t="n">
-        <v>214.562</v>
+        <v>144.883</v>
       </c>
       <c r="E25" t="n">
-        <v>237.793</v>
+        <v>94.83</v>
       </c>
       <c r="F25" t="n">
-        <v>9.27</v>
+        <v>0.522</v>
       </c>
       <c r="G25" t="n">
-        <v>27.687</v>
+        <v>1.237</v>
       </c>
       <c r="H25" t="n">
-        <v>2.66</v>
+        <v>2.422</v>
       </c>
       <c r="I25" t="n">
-        <v>1.655</v>
+        <v>1.563</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="K25" t="n">
-        <v>0.483</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="26">
@@ -1368,34 +1368,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>288.812</v>
+        <v>203.889</v>
       </c>
       <c r="E26" t="n">
-        <v>328.668</v>
+        <v>200.976</v>
       </c>
       <c r="F26" t="n">
-        <v>6.1</v>
+        <v>5.144</v>
       </c>
       <c r="G26" t="n">
-        <v>7.852</v>
+        <v>7.687</v>
       </c>
       <c r="H26" t="n">
-        <v>3.47</v>
+        <v>1.689</v>
       </c>
       <c r="I26" t="n">
-        <v>5.709</v>
+        <v>0.991</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.556</v>
       </c>
       <c r="K26" t="n">
-        <v>0.823</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="27">
@@ -1405,34 +1405,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="C27" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="D27" t="n">
-        <v>228.861</v>
+        <v>146.829</v>
       </c>
       <c r="E27" t="n">
-        <v>279.839</v>
+        <v>111.33</v>
       </c>
       <c r="F27" t="n">
-        <v>3.11</v>
+        <v>3.456</v>
       </c>
       <c r="G27" t="n">
-        <v>6.583</v>
+        <v>6.885</v>
       </c>
       <c r="H27" t="n">
-        <v>2.91</v>
+        <v>2.589</v>
       </c>
       <c r="I27" t="n">
-        <v>1.795</v>
+        <v>1.57</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="K27" t="n">
-        <v>0.422</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="28">
@@ -1442,34 +1442,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="C28" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D28" t="n">
-        <v>222.534</v>
+        <v>144.368</v>
       </c>
       <c r="E28" t="n">
-        <v>269.254</v>
+        <v>113.244</v>
       </c>
       <c r="F28" t="n">
-        <v>3.77</v>
+        <v>1.189</v>
       </c>
       <c r="G28" t="n">
-        <v>8.25</v>
+        <v>1.273</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38</v>
+        <v>1.944</v>
       </c>
       <c r="I28" t="n">
-        <v>1.907</v>
+        <v>1.399</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.778</v>
       </c>
       <c r="K28" t="n">
-        <v>0.876</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="29">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="C29" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="D29" t="n">
-        <v>249.849</v>
+        <v>172.441</v>
       </c>
       <c r="E29" t="n">
-        <v>333.536</v>
+        <v>240.298</v>
       </c>
       <c r="F29" t="n">
-        <v>4.68</v>
+        <v>5.2</v>
       </c>
       <c r="G29" t="n">
-        <v>6.354</v>
+        <v>6.51</v>
       </c>
       <c r="H29" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.376</v>
+        <v>0.646</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>1.111</v>
       </c>
       <c r="K29" t="n">
         <v>1.054</v>
@@ -1516,34 +1516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="C30" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="D30" t="n">
-        <v>268.526</v>
+        <v>183.616</v>
       </c>
       <c r="E30" t="n">
-        <v>312.6</v>
+        <v>169.776</v>
       </c>
       <c r="F30" t="n">
-        <v>8.93</v>
+        <v>9.922000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>23.847</v>
+        <v>25.073</v>
       </c>
       <c r="H30" t="n">
-        <v>3.53</v>
+        <v>2.822</v>
       </c>
       <c r="I30" t="n">
-        <v>2.88</v>
+        <v>1.922</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="K30" t="n">
-        <v>0.675</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="31">
@@ -1556,28 +1556,28 @@
         <v>0.006</v>
       </c>
       <c r="C31" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D31" t="n">
-        <v>259.097</v>
+        <v>169.111</v>
       </c>
       <c r="E31" t="n">
-        <v>321.152</v>
+        <v>157.91</v>
       </c>
       <c r="F31" t="n">
-        <v>9.65</v>
+        <v>10.722</v>
       </c>
       <c r="G31" t="n">
-        <v>23.68</v>
+        <v>24.858</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>2.344</v>
       </c>
       <c r="I31" t="n">
-        <v>2.879</v>
+        <v>1.703</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="K31" t="n">
         <v>0.527</v>
@@ -1590,34 +1590,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="C32" t="n">
         <v>0.012</v>
       </c>
       <c r="D32" t="n">
-        <v>270.563</v>
+        <v>181.358</v>
       </c>
       <c r="E32" t="n">
-        <v>343.135</v>
+        <v>207.209</v>
       </c>
       <c r="F32" t="n">
-        <v>6.26</v>
+        <v>0.733</v>
       </c>
       <c r="G32" t="n">
-        <v>17.516</v>
+        <v>1.248</v>
       </c>
       <c r="H32" t="n">
-        <v>3.39</v>
+        <v>2.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.775</v>
+        <v>2.238</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6</v>
+        <v>0.444</v>
       </c>
       <c r="K32" t="n">
-        <v>0.843</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="33">
@@ -1627,34 +1627,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D33" t="n">
-        <v>281.991</v>
+        <v>179.669</v>
       </c>
       <c r="E33" t="n">
-        <v>341.72</v>
+        <v>116.556</v>
       </c>
       <c r="F33" t="n">
-        <v>8.390000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="G33" t="n">
-        <v>16.061</v>
+        <v>17.015</v>
       </c>
       <c r="H33" t="n">
-        <v>3.63</v>
+        <v>1.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5.871</v>
+        <v>1.049</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1</v>
+        <v>0.667</v>
       </c>
       <c r="K33" t="n">
-        <v>1.595</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="34">
@@ -1667,31 +1667,31 @@
         <v>0.008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D34" t="n">
-        <v>234.696</v>
+        <v>138.909</v>
       </c>
       <c r="E34" t="n">
-        <v>321.846</v>
+        <v>115.377</v>
       </c>
       <c r="F34" t="n">
-        <v>3.32</v>
+        <v>3.689</v>
       </c>
       <c r="G34" t="n">
-        <v>6.287</v>
+        <v>6.552</v>
       </c>
       <c r="H34" t="n">
-        <v>3.38</v>
+        <v>2.333</v>
       </c>
       <c r="I34" t="n">
-        <v>3.869</v>
+        <v>2.126</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8</v>
+        <v>0.889</v>
       </c>
       <c r="K34" t="n">
-        <v>1.317</v>
+        <v>1.364</v>
       </c>
     </row>
     <row r="35">
@@ -1704,31 +1704,31 @@
         <v>0.015</v>
       </c>
       <c r="C35" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="D35" t="n">
-        <v>230.586</v>
+        <v>141.112</v>
       </c>
       <c r="E35" t="n">
-        <v>308.86</v>
+        <v>131.358</v>
       </c>
       <c r="F35" t="n">
-        <v>4.68</v>
+        <v>4.767</v>
       </c>
       <c r="G35" t="n">
-        <v>5.308</v>
+        <v>5.623</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1.411</v>
       </c>
       <c r="I35" t="n">
-        <v>2.088</v>
+        <v>1.001</v>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>1.556</v>
       </c>
       <c r="K35" t="n">
-        <v>1.509</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="36">
@@ -1741,31 +1741,31 @@
         <v>0.034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="D36" t="n">
-        <v>192.433</v>
+        <v>123.206</v>
       </c>
       <c r="E36" t="n">
-        <v>235.281</v>
+        <v>91.45</v>
       </c>
       <c r="F36" t="n">
-        <v>10.72</v>
+        <v>2.722</v>
       </c>
       <c r="G36" t="n">
-        <v>25.559</v>
+        <v>3.914</v>
       </c>
       <c r="H36" t="n">
-        <v>2.13</v>
+        <v>1.933</v>
       </c>
       <c r="I36" t="n">
-        <v>1.669</v>
+        <v>1.643</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8</v>
+        <v>0.556</v>
       </c>
       <c r="K36" t="n">
-        <v>0.919</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="37">
@@ -1778,31 +1778,31 @@
         <v>0.008</v>
       </c>
       <c r="C37" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="D37" t="n">
-        <v>285.51</v>
+        <v>181.521</v>
       </c>
       <c r="E37" t="n">
-        <v>358.62</v>
+        <v>151.76</v>
       </c>
       <c r="F37" t="n">
-        <v>3.81</v>
+        <v>4.233</v>
       </c>
       <c r="G37" t="n">
-        <v>8.257</v>
+        <v>8.641</v>
       </c>
       <c r="H37" t="n">
-        <v>3.91</v>
+        <v>1.511</v>
       </c>
       <c r="I37" t="n">
-        <v>7.622</v>
+        <v>0.787</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="K37" t="n">
-        <v>0.483</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
@@ -1812,34 +1812,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="C38" t="n">
         <v>0.034</v>
       </c>
       <c r="D38" t="n">
-        <v>230.69</v>
+        <v>139.826</v>
       </c>
       <c r="E38" t="n">
-        <v>311.511</v>
+        <v>127.619</v>
       </c>
       <c r="F38" t="n">
-        <v>1.69</v>
+        <v>1.878</v>
       </c>
       <c r="G38" t="n">
-        <v>5.344</v>
+        <v>5.633</v>
       </c>
       <c r="H38" t="n">
-        <v>2.95</v>
+        <v>2.522</v>
       </c>
       <c r="I38" t="n">
-        <v>2.294</v>
+        <v>1.965</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="K38" t="n">
-        <v>0.949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1849,34 +1849,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="C39" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="D39" t="n">
-        <v>268.362</v>
+        <v>162.506</v>
       </c>
       <c r="E39" t="n">
-        <v>368.459</v>
+        <v>163.315</v>
       </c>
       <c r="F39" t="n">
-        <v>2.47</v>
+        <v>0.344</v>
       </c>
       <c r="G39" t="n">
-        <v>6.792</v>
+        <v>1.033</v>
       </c>
       <c r="H39" t="n">
-        <v>3.89</v>
+        <v>2.833</v>
       </c>
       <c r="I39" t="n">
-        <v>4.012</v>
+        <v>2.356</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2</v>
+        <v>0.111</v>
       </c>
       <c r="K39" t="n">
-        <v>0.422</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="40">
@@ -1889,31 +1889,31 @@
         <v>0.012</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="D40" t="n">
-        <v>230.644</v>
+        <v>152.87</v>
       </c>
       <c r="E40" t="n">
-        <v>269.133</v>
+        <v>115.922</v>
       </c>
       <c r="F40" t="n">
-        <v>9.630000000000001</v>
+        <v>3.956</v>
       </c>
       <c r="G40" t="n">
-        <v>19.228</v>
+        <v>7.329</v>
       </c>
       <c r="H40" t="n">
-        <v>2.69</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.203</v>
+        <v>1.661</v>
       </c>
       <c r="J40" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.707</v>
       </c>
     </row>
     <row r="41">
@@ -1926,28 +1926,28 @@
         <v>0.015</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="D41" t="n">
-        <v>202.139</v>
+        <v>128.171</v>
       </c>
       <c r="E41" t="n">
-        <v>243.569</v>
+        <v>72.039</v>
       </c>
       <c r="F41" t="n">
-        <v>8.69</v>
+        <v>3.6</v>
       </c>
       <c r="G41" t="n">
-        <v>17.969</v>
+        <v>8.473000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2.49</v>
+        <v>1.989</v>
       </c>
       <c r="I41" t="n">
-        <v>1.77</v>
+        <v>0.837</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="K41" t="n">
         <v>0.527</v>
@@ -1960,34 +1960,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D42" t="n">
-        <v>267.872</v>
+        <v>164.046</v>
       </c>
       <c r="E42" t="n">
-        <v>369.439</v>
+        <v>179.647</v>
       </c>
       <c r="F42" t="n">
-        <v>8.449999999999999</v>
+        <v>7.067</v>
       </c>
       <c r="G42" t="n">
-        <v>8.706</v>
+        <v>7.984</v>
       </c>
       <c r="H42" t="n">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.973</v>
+        <v>1.946</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0.667</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="43">
@@ -1997,34 +1997,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="C43" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="D43" t="n">
-        <v>214.153</v>
+        <v>154.809</v>
       </c>
       <c r="E43" t="n">
-        <v>201.361</v>
+        <v>77.428</v>
       </c>
       <c r="F43" t="n">
-        <v>6.4</v>
+        <v>7.111</v>
       </c>
       <c r="G43" t="n">
-        <v>14.763</v>
+        <v>15.476</v>
       </c>
       <c r="H43" t="n">
-        <v>2.97</v>
+        <v>2.711</v>
       </c>
       <c r="I43" t="n">
-        <v>1.611</v>
+        <v>1.472</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="K43" t="n">
-        <v>0.699</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="44">
@@ -2034,34 +2034,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="C44" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="D44" t="n">
-        <v>222.691</v>
+        <v>153.623</v>
       </c>
       <c r="E44" t="n">
-        <v>242.802</v>
+        <v>112.5</v>
       </c>
       <c r="F44" t="n">
-        <v>15.14</v>
+        <v>9.878</v>
       </c>
       <c r="G44" t="n">
-        <v>30.402</v>
+        <v>26.987</v>
       </c>
       <c r="H44" t="n">
-        <v>2.45</v>
+        <v>1.989</v>
       </c>
       <c r="I44" t="n">
-        <v>1.751</v>
+        <v>1.028</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="K44" t="n">
-        <v>0.516</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -2074,31 +2074,31 @@
         <v>0.007</v>
       </c>
       <c r="C45" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D45" t="n">
-        <v>234.123</v>
+        <v>153.033</v>
       </c>
       <c r="E45" t="n">
-        <v>313.265</v>
+        <v>190.86</v>
       </c>
       <c r="F45" t="n">
-        <v>3.78</v>
+        <v>4.078</v>
       </c>
       <c r="G45" t="n">
-        <v>4.245</v>
+        <v>4.391</v>
       </c>
       <c r="H45" t="n">
-        <v>2.12</v>
+        <v>1.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.477</v>
+        <v>1.377</v>
       </c>
       <c r="J45" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1.252</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="46">
@@ -2108,34 +2108,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="D46" t="n">
-        <v>301.774</v>
+        <v>190.263</v>
       </c>
       <c r="E46" t="n">
-        <v>380.732</v>
+        <v>152.264</v>
       </c>
       <c r="F46" t="n">
-        <v>7.24</v>
+        <v>2.5</v>
       </c>
       <c r="G46" t="n">
-        <v>16.235</v>
+        <v>6.614</v>
       </c>
       <c r="H46" t="n">
-        <v>3.82</v>
+        <v>3.056</v>
       </c>
       <c r="I46" t="n">
-        <v>3.514</v>
+        <v>2.706</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4</v>
+        <v>0.222</v>
       </c>
       <c r="K46" t="n">
-        <v>0.699</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="47">
@@ -2145,34 +2145,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="C47" t="n">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="D47" t="n">
-        <v>241.038</v>
+        <v>154.616</v>
       </c>
       <c r="E47" t="n">
-        <v>312.945</v>
+        <v>161.725</v>
       </c>
       <c r="F47" t="n">
-        <v>2.86</v>
+        <v>1.5</v>
       </c>
       <c r="G47" t="n">
-        <v>4.922</v>
+        <v>2.54</v>
       </c>
       <c r="H47" t="n">
-        <v>2.36</v>
+        <v>1.289</v>
       </c>
       <c r="I47" t="n">
-        <v>3.488</v>
+        <v>0.881</v>
       </c>
       <c r="J47" t="n">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="K47" t="n">
-        <v>2.486</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="48">
@@ -2182,34 +2182,34 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C48" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="D48" t="n">
-        <v>267.768</v>
+        <v>161.251</v>
       </c>
       <c r="E48" t="n">
-        <v>353.389</v>
+        <v>113.373</v>
       </c>
       <c r="F48" t="n">
-        <v>2.35</v>
+        <v>2.611</v>
       </c>
       <c r="G48" t="n">
-        <v>2.943</v>
+        <v>2.996</v>
       </c>
       <c r="H48" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.742</v>
+        <v>1.805</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8</v>
+        <v>0.889</v>
       </c>
       <c r="K48" t="n">
-        <v>1.033</v>
+        <v>1.054</v>
       </c>
     </row>
     <row r="49">
@@ -2222,31 +2222,31 @@
         <v>0.006</v>
       </c>
       <c r="C49" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D49" t="n">
-        <v>277.565</v>
+        <v>194.868</v>
       </c>
       <c r="E49" t="n">
-        <v>333.943</v>
+        <v>220.272</v>
       </c>
       <c r="F49" t="n">
-        <v>11.78</v>
+        <v>3.278</v>
       </c>
       <c r="G49" t="n">
-        <v>27.513</v>
+        <v>6.193</v>
       </c>
       <c r="H49" t="n">
-        <v>3.48</v>
+        <v>2.367</v>
       </c>
       <c r="I49" t="n">
-        <v>3.817</v>
+        <v>1.564</v>
       </c>
       <c r="J49" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1.101</v>
+        <v>1.118</v>
       </c>
     </row>
     <row r="50">
@@ -2256,34 +2256,34 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="C50" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="D50" t="n">
-        <v>217.804</v>
+        <v>151.529</v>
       </c>
       <c r="E50" t="n">
-        <v>302.433</v>
+        <v>231.266</v>
       </c>
       <c r="F50" t="n">
-        <v>13.27</v>
+        <v>8.467000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>23.041</v>
+        <v>18.376</v>
       </c>
       <c r="H50" t="n">
-        <v>2.65</v>
+        <v>2.111</v>
       </c>
       <c r="I50" t="n">
-        <v>2.486</v>
+        <v>1.919</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9</v>
+        <v>0.778</v>
       </c>
       <c r="K50" t="n">
-        <v>0.738</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="51">
@@ -2293,31 +2293,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
       <c r="C51" t="n">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
       <c r="D51" t="n">
-        <v>211.441</v>
+        <v>134.284</v>
       </c>
       <c r="E51" t="n">
-        <v>261.94</v>
+        <v>101.078</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5</v>
+        <v>1.667</v>
       </c>
       <c r="G51" t="n">
-        <v>1.61</v>
+        <v>1.613</v>
       </c>
       <c r="H51" t="n">
-        <v>2.27</v>
+        <v>2.044</v>
       </c>
       <c r="I51" t="n">
-        <v>1.325</v>
+        <v>1.184</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="K51" t="n">
         <v>0.527</v>
@@ -2330,34 +2330,34 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="C52" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="D52" t="n">
-        <v>245.518</v>
+        <v>164.475</v>
       </c>
       <c r="E52" t="n">
-        <v>307.541</v>
+        <v>180.318</v>
       </c>
       <c r="F52" t="n">
-        <v>1.55</v>
+        <v>1.722</v>
       </c>
       <c r="G52" t="n">
-        <v>3.358</v>
+        <v>3.514</v>
       </c>
       <c r="H52" t="n">
-        <v>3.55</v>
+        <v>2.156</v>
       </c>
       <c r="I52" t="n">
-        <v>4.707</v>
+        <v>1.747</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="K52" t="n">
-        <v>0.699</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="53">
@@ -2367,34 +2367,34 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="C53" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="D53" t="n">
-        <v>227.041</v>
+        <v>129.454</v>
       </c>
       <c r="E53" t="n">
-        <v>330.12</v>
+        <v>124.363</v>
       </c>
       <c r="F53" t="n">
-        <v>1.58</v>
+        <v>1.756</v>
       </c>
       <c r="G53" t="n">
-        <v>2.426</v>
+        <v>2.505</v>
       </c>
       <c r="H53" t="n">
-        <v>2.41</v>
+        <v>1.333</v>
       </c>
       <c r="I53" t="n">
-        <v>3.548</v>
+        <v>1.059</v>
       </c>
       <c r="J53" t="n">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="K53" t="n">
-        <v>1.932</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2404,31 +2404,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="C54" t="n">
         <v>0.026</v>
       </c>
       <c r="D54" t="n">
-        <v>196.05</v>
+        <v>129.868</v>
       </c>
       <c r="E54" t="n">
-        <v>225.42</v>
+        <v>88.825</v>
       </c>
       <c r="F54" t="n">
-        <v>9.050000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="G54" t="n">
-        <v>13.814</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2.53</v>
+        <v>2.322</v>
       </c>
       <c r="I54" t="n">
-        <v>1.635</v>
+        <v>1.588</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="K54" t="n">
         <v>0.527</v>
@@ -2447,25 +2447,25 @@
         <v>0.013</v>
       </c>
       <c r="D55" t="n">
-        <v>249.758</v>
+        <v>175.816</v>
       </c>
       <c r="E55" t="n">
-        <v>287.823</v>
+        <v>178.012</v>
       </c>
       <c r="F55" t="n">
-        <v>5.84</v>
+        <v>6.489</v>
       </c>
       <c r="G55" t="n">
-        <v>13.504</v>
+        <v>14.157</v>
       </c>
       <c r="H55" t="n">
-        <v>2.9</v>
+        <v>2.222</v>
       </c>
       <c r="I55" t="n">
-        <v>2.728</v>
+        <v>1.791</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>1.111</v>
       </c>
       <c r="K55" t="n">
         <v>1.054</v>
@@ -2478,34 +2478,34 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="C56" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="D56" t="n">
-        <v>224.03</v>
+        <v>143.082</v>
       </c>
       <c r="E56" t="n">
-        <v>263.454</v>
+        <v>66.075</v>
       </c>
       <c r="F56" t="n">
-        <v>3.18</v>
+        <v>2.456</v>
       </c>
       <c r="G56" t="n">
-        <v>4.611</v>
+        <v>4.245</v>
       </c>
       <c r="H56" t="n">
-        <v>2.86</v>
+        <v>1.978</v>
       </c>
       <c r="I56" t="n">
-        <v>3.092</v>
+        <v>1.414</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9</v>
+        <v>0.444</v>
       </c>
       <c r="K56" t="n">
-        <v>1.595</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="57">
@@ -2515,34 +2515,34 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="C57" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D57" t="n">
-        <v>252.584</v>
+        <v>161.025</v>
       </c>
       <c r="E57" t="n">
-        <v>324.871</v>
+        <v>156.288</v>
       </c>
       <c r="F57" t="n">
-        <v>8.56</v>
+        <v>1.067</v>
       </c>
       <c r="G57" t="n">
-        <v>23.769</v>
+        <v>1.979</v>
       </c>
       <c r="H57" t="n">
-        <v>3.09</v>
+        <v>2.189</v>
       </c>
       <c r="I57" t="n">
-        <v>3.116</v>
+        <v>1.337</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7</v>
+        <v>0.444</v>
       </c>
       <c r="K57" t="n">
-        <v>1.059</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="58">
@@ -2552,34 +2552,34 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="C58" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="D58" t="n">
-        <v>223.956</v>
+        <v>155.423</v>
       </c>
       <c r="E58" t="n">
-        <v>255.006</v>
+        <v>142.541</v>
       </c>
       <c r="F58" t="n">
-        <v>9.109999999999999</v>
+        <v>10.122</v>
       </c>
       <c r="G58" t="n">
-        <v>17.234</v>
+        <v>17.961</v>
       </c>
       <c r="H58" t="n">
-        <v>2.21</v>
+        <v>1.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.241</v>
+        <v>1.209</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="K58" t="n">
-        <v>0.707</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="59">
@@ -2592,31 +2592,31 @@
         <v>0.013</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="D59" t="n">
-        <v>225.855</v>
+        <v>135.69</v>
       </c>
       <c r="E59" t="n">
-        <v>299.107</v>
+        <v>95.858</v>
       </c>
       <c r="F59" t="n">
-        <v>0.28</v>
+        <v>0.311</v>
       </c>
       <c r="G59" t="n">
-        <v>0.885</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>3.25</v>
+        <v>2.156</v>
       </c>
       <c r="I59" t="n">
-        <v>3.947</v>
+        <v>2.013</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1</v>
+        <v>0.111</v>
       </c>
       <c r="K59" t="n">
-        <v>0.316</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="60">
@@ -2629,31 +2629,31 @@
         <v>0.01</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="D60" t="n">
-        <v>214.285</v>
+        <v>135.541</v>
       </c>
       <c r="E60" t="n">
-        <v>263.128</v>
+        <v>90.187</v>
       </c>
       <c r="F60" t="n">
-        <v>4.86</v>
+        <v>5.4</v>
       </c>
       <c r="G60" t="n">
-        <v>10.882</v>
+        <v>11.399</v>
       </c>
       <c r="H60" t="n">
-        <v>2.89</v>
+        <v>2.167</v>
       </c>
       <c r="I60" t="n">
-        <v>2.701</v>
+        <v>1.524</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="K60" t="n">
-        <v>0.516</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="61">
@@ -2666,28 +2666,28 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>220.424</v>
+        <v>160.176</v>
       </c>
       <c r="E61" t="n">
-        <v>255.722</v>
+        <v>180.919</v>
       </c>
       <c r="F61" t="n">
-        <v>8.83</v>
+        <v>6.056</v>
       </c>
       <c r="G61" t="n">
-        <v>13.891</v>
+        <v>11.423</v>
       </c>
       <c r="H61" t="n">
-        <v>2.29</v>
+        <v>1.911</v>
       </c>
       <c r="I61" t="n">
-        <v>1.553</v>
+        <v>1.048</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="K61" t="n">
         <v>0.527</v>
@@ -2700,31 +2700,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D62" t="n">
-        <v>269.282</v>
+        <v>171.799</v>
       </c>
       <c r="E62" t="n">
-        <v>351.065</v>
+        <v>178.169</v>
       </c>
       <c r="F62" t="n">
-        <v>8.210000000000001</v>
+        <v>5.011</v>
       </c>
       <c r="G62" t="n">
-        <v>15.175</v>
+        <v>11.997</v>
       </c>
       <c r="H62" t="n">
-        <v>2.99</v>
+        <v>2.367</v>
       </c>
       <c r="I62" t="n">
-        <v>2.445</v>
+        <v>1.535</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="K62" t="n">
         <v>0.527</v>
@@ -2737,34 +2737,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="C63" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="D63" t="n">
-        <v>275.311</v>
+        <v>161.931</v>
       </c>
       <c r="E63" t="n">
-        <v>380.232</v>
+        <v>134.266</v>
       </c>
       <c r="F63" t="n">
-        <v>6.85</v>
+        <v>5.6</v>
       </c>
       <c r="G63" t="n">
-        <v>8.977</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>4.64</v>
+        <v>2.633</v>
       </c>
       <c r="I63" t="n">
-        <v>6.563</v>
+        <v>1.776</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8</v>
+        <v>0.667</v>
       </c>
       <c r="K63" t="n">
-        <v>1.317</v>
+        <v>1.323</v>
       </c>
     </row>
   </sheetData>
